--- a/Symphony/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Inactivating Retailers Format" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,91 +33,91 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-36437</t>
-  </si>
-  <si>
-    <t>Monia Telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonail   </t>
-  </si>
-  <si>
-    <t>RET-14868</t>
-  </si>
-  <si>
-    <t>Maa Baba Telecom</t>
-  </si>
-  <si>
-    <t>Halsha Bazar</t>
-  </si>
-  <si>
-    <t>RET-35369</t>
-  </si>
-  <si>
-    <t>Sinja Telecom</t>
-  </si>
-  <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>RET-32043</t>
-  </si>
-  <si>
-    <t>Siam Telecom</t>
-  </si>
-  <si>
-    <t>Bonpara</t>
-  </si>
-  <si>
     <t>RET-21139</t>
   </si>
   <si>
-    <t>Mukta Gift corner</t>
-  </si>
-  <si>
-    <t>Dhopapara Bazar</t>
-  </si>
-  <si>
-    <t>RET-08826</t>
-  </si>
-  <si>
-    <t>Moli Telecom</t>
-  </si>
-  <si>
-    <t>Upazila Market</t>
-  </si>
-  <si>
-    <t>RET-38674</t>
-  </si>
-  <si>
-    <t>Sopno Electronics</t>
-  </si>
-  <si>
-    <t>Naldanga</t>
-  </si>
-  <si>
-    <t>RET-36168</t>
-  </si>
-  <si>
-    <t>Nirob Mobile &amp; Computer</t>
-  </si>
-  <si>
-    <t>RET-23821</t>
-  </si>
-  <si>
-    <t>Mahi Telecom</t>
-  </si>
-  <si>
-    <t>Koraitola Bazar</t>
-  </si>
-  <si>
-    <t>RET-37855</t>
-  </si>
-  <si>
-    <t>Babu Mobile Center</t>
-  </si>
-  <si>
-    <t>Road view</t>
+    <t>RET-20753</t>
+  </si>
+  <si>
+    <t>Milon Telecom</t>
+  </si>
+  <si>
+    <t>Bagha Old Bus Stand Bagha Rajshahi</t>
+  </si>
+  <si>
+    <t>RET-24887</t>
+  </si>
+  <si>
+    <t>B.M Mobile House</t>
+  </si>
+  <si>
+    <t>Oalia Bazar Lalpur Natore</t>
+  </si>
+  <si>
+    <t>RET-38191</t>
+  </si>
+  <si>
+    <t>MS Electronics</t>
+  </si>
+  <si>
+    <t>RET-38675</t>
+  </si>
+  <si>
+    <t>Mobile Plus</t>
+  </si>
+  <si>
+    <t>Bonpara Baraigram Natore</t>
+  </si>
+  <si>
+    <t>Mukta Gift Corner</t>
+  </si>
+  <si>
+    <t>Dhopapara Bazar Puthia Rajshahi</t>
+  </si>
+  <si>
+    <t>RET-40197</t>
+  </si>
+  <si>
+    <t>Ma Electronics Nandangachi</t>
+  </si>
+  <si>
+    <t>Nandangachi</t>
+  </si>
+  <si>
+    <t>RET-14733</t>
+  </si>
+  <si>
+    <t>Geetanjali Electronics</t>
+  </si>
+  <si>
+    <t>Singra Pourosova* Singra* Natore</t>
+  </si>
+  <si>
+    <t>RET-34129</t>
+  </si>
+  <si>
+    <t>Ma Telecom &amp; Studio</t>
+  </si>
+  <si>
+    <t>Jamnogor Bagatipara Natore</t>
+  </si>
+  <si>
+    <t>RET-40195</t>
+  </si>
+  <si>
+    <t>Trisha Electronics</t>
+  </si>
+  <si>
+    <t>Singra Natore</t>
+  </si>
+  <si>
+    <t>RET-14729</t>
+  </si>
+  <si>
+    <t>S.K Multimedia</t>
+  </si>
+  <si>
+    <t>CM Shopping Complex</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,42 +576,42 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>6</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -622,14 +622,14 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
@@ -641,14 +641,14 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="13"/>
@@ -660,29 +660,29 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -694,7 +694,7 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -705,15 +705,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
